--- a/results/FrequencyTables/26581162_sg62F.xlsx
+++ b/results/FrequencyTables/26581162_sg62F.xlsx
@@ -468,40 +468,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0128205128205128</v>
+        <v>0.0115207373271889</v>
       </c>
       <c r="D2">
-        <v>0.0256410256410256</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0128205128205128</v>
+        <v>0.00691244239631336</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="H2">
-        <v>0.333333333333333</v>
+        <v>0.347926267281106</v>
       </c>
       <c r="I2">
-        <v>0.0128205128205128</v>
+        <v>0.00921658986175115</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0128205128205128</v>
+        <v>0.0138248847926267</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.993087557603687</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.205128205128205</v>
+        <v>0.195852534562212</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.987179487179487</v>
+        <v>0.995391705069124</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.987179487179487</v>
+        <v>0.914746543778802</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="U2">
-        <v>0.987179487179487</v>
+        <v>0.986175115207373</v>
       </c>
       <c r="V2">
-        <v>0.974358974358974</v>
+        <v>0.921658986175115</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00691244239631336</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.923076923076923</v>
+        <v>0.808755760368664</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00691244239631336</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,49 +557,49 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0128205128205128</v>
+        <v>0.0115207373271889</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00921658986175115</v>
       </c>
       <c r="J3">
-        <v>0.897435897435897</v>
+        <v>0.905529953917051</v>
       </c>
       <c r="K3">
-        <v>0.0256410256410256</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="M3">
-        <v>0.846153846153846</v>
+        <v>0.921658986175115</v>
       </c>
       <c r="N3">
-        <v>0.782051282051282</v>
+        <v>0.794930875576037</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.974358974358974</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.997695852534562</v>
       </c>
       <c r="S3">
-        <v>0.0128205128205128</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.995391705069124</v>
       </c>
       <c r="U3">
-        <v>0.0128205128205128</v>
+        <v>0.00921658986175115</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -613,37 +613,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0128205128205128</v>
+        <v>0.0115207373271889</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="D4">
-        <v>0.961538461538462</v>
+        <v>0.963133640552995</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="F4">
-        <v>0.987179487179487</v>
+        <v>0.993087557603687</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.995391705069124</v>
       </c>
       <c r="H4">
-        <v>0.653846153846154</v>
+        <v>0.638248847926267</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0128205128205128</v>
+        <v>0.0138248847926267</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -655,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0829493087557604</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00460829493087558</v>
       </c>
       <c r="V4">
-        <v>0.0256410256410256</v>
+        <v>0.076036866359447</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.995391705069124</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.993087557603687</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0641025641025641</v>
+        <v>0.179723502304147</v>
       </c>
       <c r="C5">
-        <v>0.987179487179487</v>
+        <v>0.983870967741935</v>
       </c>
       <c r="D5">
-        <v>0.0128205128205128</v>
+        <v>0.0161290322580645</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.988479262672811</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -705,34 +705,34 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="I5">
-        <v>0.987179487179487</v>
+        <v>0.981566820276498</v>
       </c>
       <c r="J5">
-        <v>0.0897435897435897</v>
+        <v>0.0806451612903226</v>
       </c>
       <c r="K5">
-        <v>0.961538461538462</v>
+        <v>0.981566820276498</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.153846153846154</v>
+        <v>0.076036866359447</v>
       </c>
       <c r="N5">
-        <v>0.0128205128205128</v>
+        <v>0.00921658986175115</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0256410256410256</v>
+        <v>0.0668202764976959</v>
       </c>
       <c r="Q5">
-        <v>0.0128205128205128</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00230414746543779</v>
       </c>
       <c r="X5">
         <v>0</v>
